--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA57239-616E-4A8E-AEAA-E6CC63115E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E5FE0-80C6-D641-A903-D89C2614AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3435" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="21600" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Tester@12345</t>
-  </si>
-  <si>
-    <t>test@123</t>
   </si>
   <si>
     <t>adith123@gmail.com</t>
@@ -456,20 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -491,37 +488,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7ED63F57-644F-4E78-9587-08CB51DEF5FB}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{EB701B42-A320-4932-9568-F231C8F446AB}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{2C470B3A-2A6E-4E3F-904B-CF31F1A9D026}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{656AEC94-B650-4259-B493-306988F0A28A}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{548FE8EA-49A2-4237-8C21-4771A033AE22}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EB701B42-A320-4932-9568-F231C8F446AB}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{656AEC94-B650-4259-B493-306988F0A28A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>